--- a/data/egret_DL.xlsx
+++ b/data/egret_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB854D4-19AE-314D-A904-C6E270D6EA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FEED01-9614-0A42-A04D-2052FB7E0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38120" yWindow="10200" windowWidth="36960" windowHeight="9820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="6740" windowWidth="28800" windowHeight="8860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12679" uniqueCount="2807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12681" uniqueCount="2807">
   <si>
     <t>datasetID</t>
   </si>
@@ -10010,8 +10010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B415" workbookViewId="0">
-      <selection activeCell="M416" sqref="M416"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14651,7 +14651,7 @@
         <v>747</v>
       </c>
       <c r="K92" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="P92" t="s">
         <v>513</v>
@@ -16585,6 +16585,9 @@
       <c r="K134" t="s">
         <v>163</v>
       </c>
+      <c r="M134" t="s">
+        <v>2804</v>
+      </c>
       <c r="R134" t="s">
         <v>202</v>
       </c>
@@ -16629,6 +16632,9 @@
       <c r="K135" t="s">
         <v>163</v>
       </c>
+      <c r="M135" t="s">
+        <v>2804</v>
+      </c>
       <c r="P135" t="s">
         <v>45</v>
       </c>
@@ -26021,7 +26027,7 @@
         <v>1994</v>
       </c>
       <c r="K347" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="P347" t="s">
         <v>513</v>
@@ -26153,7 +26159,7 @@
         <v>2010</v>
       </c>
       <c r="K350" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="P350" t="s">
         <v>513</v>
@@ -26370,7 +26376,7 @@
         <v>2034</v>
       </c>
       <c r="K355" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="R355" t="s">
         <v>251</v>
@@ -29049,7 +29055,7 @@
         <v>2316</v>
       </c>
       <c r="K418" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="R418" t="s">
         <v>308</v>
@@ -29245,7 +29251,7 @@
         <v>634</v>
       </c>
       <c r="K423" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="R423" t="s">
         <v>308</v>

--- a/data/egret_DL.xlsx
+++ b/data/egret_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FEED01-9614-0A42-A04D-2052FB7E0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAC775-9A22-074D-A842-1310830D737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="6740" windowWidth="28800" windowHeight="8860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35140" yWindow="3480" windowWidth="33400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12681" uniqueCount="2807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12682" uniqueCount="2808">
   <si>
     <t>datasetID</t>
   </si>
@@ -8455,6 +8455,9 @@
   </si>
   <si>
     <t>Japanese</t>
+  </si>
+  <si>
+    <t>conference talk</t>
   </si>
 </sst>
 </file>
@@ -10010,13 +10013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="108.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -28275,7 +28279,10 @@
         <v>1803</v>
       </c>
       <c r="K400" t="s">
-        <v>163</v>
+        <v>309</v>
+      </c>
+      <c r="L400" t="s">
+        <v>2807</v>
       </c>
       <c r="P400" t="s">
         <v>45</v>
@@ -32071,8 +32078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS382"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE375" sqref="AE375:AE376"/>
     </sheetView>
   </sheetViews>
